--- a/dc_data/DCBudgetMetroRailOrignal.xlsx
+++ b/dc_data/DCBudgetMetroRailOrignal.xlsx
@@ -26,42 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budget </t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>2012_01</t>
-  </si>
-  <si>
-    <t>2012_02</t>
-  </si>
-  <si>
-    <t>2012_03</t>
-  </si>
-  <si>
-    <t>2012_04</t>
-  </si>
-  <si>
-    <t>2012_05</t>
-  </si>
-  <si>
-    <t>2012_06</t>
-  </si>
-  <si>
-    <t>2012_07</t>
-  </si>
-  <si>
-    <t>2012_08</t>
-  </si>
-  <si>
-    <t>2012_09</t>
-  </si>
-  <si>
     <t>2012_10</t>
   </si>
   <si>
@@ -71,39 +35,9 @@
     <t>2012_12</t>
   </si>
   <si>
-    <t>Performance (in millions)</t>
-  </si>
-  <si>
     <t>Coverage (miles)</t>
   </si>
   <si>
-    <t>2010_01</t>
-  </si>
-  <si>
-    <t>2010_02</t>
-  </si>
-  <si>
-    <t>2010_03</t>
-  </si>
-  <si>
-    <t>2010_04</t>
-  </si>
-  <si>
-    <t>2010_05</t>
-  </si>
-  <si>
-    <t>2010_06</t>
-  </si>
-  <si>
-    <t>2010_07</t>
-  </si>
-  <si>
-    <t>2010_08</t>
-  </si>
-  <si>
-    <t>2010_09</t>
-  </si>
-  <si>
     <t>2010_10</t>
   </si>
   <si>
@@ -113,33 +47,6 @@
     <t>2010_12</t>
   </si>
   <si>
-    <t>2011_01</t>
-  </si>
-  <si>
-    <t>2011_02</t>
-  </si>
-  <si>
-    <t>2011_03</t>
-  </si>
-  <si>
-    <t>2011_04</t>
-  </si>
-  <si>
-    <t>2011_05</t>
-  </si>
-  <si>
-    <t>2011_06</t>
-  </si>
-  <si>
-    <t>2011_07</t>
-  </si>
-  <si>
-    <t>2011_08</t>
-  </si>
-  <si>
-    <t>2011_09</t>
-  </si>
-  <si>
     <t>2011_10</t>
   </si>
   <si>
@@ -149,33 +56,6 @@
     <t>2011_12</t>
   </si>
   <si>
-    <t>2013_01</t>
-  </si>
-  <si>
-    <t>2013_02</t>
-  </si>
-  <si>
-    <t>2013_03</t>
-  </si>
-  <si>
-    <t>2013_04</t>
-  </si>
-  <si>
-    <t>2013_05</t>
-  </si>
-  <si>
-    <t>2013_06</t>
-  </si>
-  <si>
-    <t>2013_07</t>
-  </si>
-  <si>
-    <t>2013_08</t>
-  </si>
-  <si>
-    <t>2013_09</t>
-  </si>
-  <si>
     <t>2013_10</t>
   </si>
   <si>
@@ -185,33 +65,6 @@
     <t>2013_12</t>
   </si>
   <si>
-    <t>2014_01</t>
-  </si>
-  <si>
-    <t>2014_02</t>
-  </si>
-  <si>
-    <t>2014_03</t>
-  </si>
-  <si>
-    <t>2014_04</t>
-  </si>
-  <si>
-    <t>2014_05</t>
-  </si>
-  <si>
-    <t>2014_06</t>
-  </si>
-  <si>
-    <t>2014_07</t>
-  </si>
-  <si>
-    <t>2014_08</t>
-  </si>
-  <si>
-    <t>2014_09</t>
-  </si>
-  <si>
     <t>2014_10</t>
   </si>
   <si>
@@ -221,33 +74,6 @@
     <t>2014_12</t>
   </si>
   <si>
-    <t>2009_01</t>
-  </si>
-  <si>
-    <t>2009_02</t>
-  </si>
-  <si>
-    <t>2009_03</t>
-  </si>
-  <si>
-    <t>2009_04</t>
-  </si>
-  <si>
-    <t>2009_05</t>
-  </si>
-  <si>
-    <t>2009_06</t>
-  </si>
-  <si>
-    <t>2009_07</t>
-  </si>
-  <si>
-    <t>2009_08</t>
-  </si>
-  <si>
-    <t>2009_09</t>
-  </si>
-  <si>
     <t>2009_10</t>
   </si>
   <si>
@@ -255,6 +81,180 @@
   </si>
   <si>
     <t>2009_12</t>
+  </si>
+  <si>
+    <t>YEAR-MONTH</t>
+  </si>
+  <si>
+    <t>2009_1</t>
+  </si>
+  <si>
+    <t>2009_2</t>
+  </si>
+  <si>
+    <t>2009_3</t>
+  </si>
+  <si>
+    <t>2009_4</t>
+  </si>
+  <si>
+    <t>2009_5</t>
+  </si>
+  <si>
+    <t>2009_6</t>
+  </si>
+  <si>
+    <t>2009_7</t>
+  </si>
+  <si>
+    <t>2009_8</t>
+  </si>
+  <si>
+    <t>2009_9</t>
+  </si>
+  <si>
+    <t>2010_1</t>
+  </si>
+  <si>
+    <t>2010_2</t>
+  </si>
+  <si>
+    <t>2010_3</t>
+  </si>
+  <si>
+    <t>2010_4</t>
+  </si>
+  <si>
+    <t>2010_5</t>
+  </si>
+  <si>
+    <t>2010_6</t>
+  </si>
+  <si>
+    <t>2010_7</t>
+  </si>
+  <si>
+    <t>2010_8</t>
+  </si>
+  <si>
+    <t>2010_9</t>
+  </si>
+  <si>
+    <t>2011_1</t>
+  </si>
+  <si>
+    <t>2011_2</t>
+  </si>
+  <si>
+    <t>2011_3</t>
+  </si>
+  <si>
+    <t>2011_4</t>
+  </si>
+  <si>
+    <t>2011_5</t>
+  </si>
+  <si>
+    <t>2011_6</t>
+  </si>
+  <si>
+    <t>2011_7</t>
+  </si>
+  <si>
+    <t>2011_8</t>
+  </si>
+  <si>
+    <t>2011_9</t>
+  </si>
+  <si>
+    <t>2012_1</t>
+  </si>
+  <si>
+    <t>2012_2</t>
+  </si>
+  <si>
+    <t>2012_3</t>
+  </si>
+  <si>
+    <t>2012_4</t>
+  </si>
+  <si>
+    <t>2012_5</t>
+  </si>
+  <si>
+    <t>2012_6</t>
+  </si>
+  <si>
+    <t>2012_7</t>
+  </si>
+  <si>
+    <t>2012_8</t>
+  </si>
+  <si>
+    <t>2012_9</t>
+  </si>
+  <si>
+    <t>2013_1</t>
+  </si>
+  <si>
+    <t>2013_2</t>
+  </si>
+  <si>
+    <t>2013_3</t>
+  </si>
+  <si>
+    <t>2013_4</t>
+  </si>
+  <si>
+    <t>2013_5</t>
+  </si>
+  <si>
+    <t>2013_6</t>
+  </si>
+  <si>
+    <t>2013_7</t>
+  </si>
+  <si>
+    <t>2013_8</t>
+  </si>
+  <si>
+    <t>2013_9</t>
+  </si>
+  <si>
+    <t>2014_1</t>
+  </si>
+  <si>
+    <t>2014_2</t>
+  </si>
+  <si>
+    <t>2014_3</t>
+  </si>
+  <si>
+    <t>2014_4</t>
+  </si>
+  <si>
+    <t>2014_5</t>
+  </si>
+  <si>
+    <t>2014_6</t>
+  </si>
+  <si>
+    <t>2014_7</t>
+  </si>
+  <si>
+    <t>2014_8</t>
+  </si>
+  <si>
+    <t>2014_9</t>
+  </si>
+  <si>
+    <t>RIDERSHIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUDGET </t>
+  </si>
+  <si>
+    <t>POPULATION</t>
   </si>
 </sst>
 </file>
@@ -609,31 +609,31 @@
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>21000000</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>18500000</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>18200000</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>19700000</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>16100000</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>16400000</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>18500000</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>16600000</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>19100000</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>20300000</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>18400000</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>20100000</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>20500000</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>17900000</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>17800000</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>19000000</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>16400000</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>16000000</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>16500000</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>13400000</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>20300000</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <v>20800000</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B24">
         <v>18300000</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>20300000</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>9300000</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>9700000</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>11500000</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>10800000</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>10900000</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>11100000</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>10600000</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B33">
         <v>11400000</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B34">
         <v>11200000</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <v>10900000</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B36">
         <v>10600000</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B37">
         <v>10400000</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>16500000</v>
@@ -1145,16 +1145,13 @@
       <c r="C38">
         <v>67525000</v>
       </c>
-      <c r="D38">
-        <v>117</v>
-      </c>
       <c r="E38">
         <v>635040</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>16600000</v>
@@ -1162,16 +1159,13 @@
       <c r="C39">
         <v>67525000</v>
       </c>
-      <c r="D39">
-        <v>117</v>
-      </c>
       <c r="E39">
         <v>635040</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>19700000</v>
@@ -1179,16 +1173,13 @@
       <c r="C40">
         <v>67525000</v>
       </c>
-      <c r="D40">
-        <v>117</v>
-      </c>
       <c r="E40">
         <v>635040</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B41">
         <v>19000000</v>
@@ -1196,16 +1187,13 @@
       <c r="C41">
         <v>67525000</v>
       </c>
-      <c r="D41">
-        <v>117</v>
-      </c>
       <c r="E41">
         <v>635040</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>19100000</v>
@@ -1213,16 +1201,13 @@
       <c r="C42">
         <v>67525000</v>
       </c>
-      <c r="D42">
-        <v>117</v>
-      </c>
       <c r="E42">
         <v>635040</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>19500000</v>
@@ -1230,16 +1215,13 @@
       <c r="C43">
         <v>67525000</v>
       </c>
-      <c r="D43">
-        <v>117</v>
-      </c>
       <c r="E43">
         <v>635040</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>18900000</v>
@@ -1247,16 +1229,13 @@
       <c r="C44">
         <v>67525000</v>
       </c>
-      <c r="D44">
-        <v>117</v>
-      </c>
       <c r="E44">
         <v>635040</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>18200000</v>
@@ -1264,16 +1243,13 @@
       <c r="C45">
         <v>67525000</v>
       </c>
-      <c r="D45">
-        <v>117</v>
-      </c>
       <c r="E45">
         <v>635040</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>16600000</v>
@@ -1281,16 +1257,13 @@
       <c r="C46">
         <v>67525000</v>
       </c>
-      <c r="D46">
-        <v>117</v>
-      </c>
       <c r="E46">
         <v>635040</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B47">
         <v>17400000</v>
@@ -1298,16 +1271,13 @@
       <c r="C47">
         <v>67525000</v>
       </c>
-      <c r="D47">
-        <v>117</v>
-      </c>
       <c r="E47">
         <v>635040</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B48">
         <v>16200000</v>
@@ -1315,16 +1285,13 @@
       <c r="C48">
         <v>67525000</v>
       </c>
-      <c r="D48">
-        <v>117</v>
-      </c>
       <c r="E48">
         <v>635040</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B49">
         <v>14600000</v>
@@ -1332,16 +1299,13 @@
       <c r="C49">
         <v>67525000</v>
       </c>
-      <c r="D49">
-        <v>117</v>
-      </c>
       <c r="E49">
         <v>635040</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B50">
         <v>17300000</v>
@@ -1355,7 +1319,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B51">
         <v>15700000</v>
@@ -1369,7 +1333,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>17900000</v>
@@ -1383,7 +1347,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B53">
         <v>19700000</v>
@@ -1397,7 +1361,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B54">
         <v>18500000</v>
@@ -1411,7 +1375,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B55">
         <v>17900000</v>
@@ -1425,7 +1389,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B56">
         <v>19400000</v>
@@ -1439,7 +1403,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>18000000</v>
@@ -1453,7 +1417,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B58">
         <v>16900000</v>
@@ -1467,7 +1431,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B59">
         <v>17200000</v>
@@ -1481,7 +1445,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B60">
         <v>15700000</v>
@@ -1495,7 +1459,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B61">
         <v>14700000</v>
@@ -1509,7 +1473,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>15200000</v>
@@ -1523,7 +1487,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B63">
         <v>14400000</v>
@@ -1537,7 +1501,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B64">
         <v>16800000</v>
@@ -1551,7 +1515,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B65">
         <v>19500000</v>
@@ -1565,7 +1529,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B66">
         <v>18100000</v>
@@ -1579,7 +1543,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B67">
         <v>18300000</v>
@@ -1593,7 +1557,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B68">
         <v>19400000</v>
@@ -1607,7 +1571,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B69">
         <v>17600000</v>
@@ -1621,7 +1585,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>17500000</v>
@@ -1635,7 +1599,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B71">
         <v>18800000</v>
@@ -1649,7 +1613,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B72">
         <v>15400000</v>
@@ -1663,7 +1627,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="B73">
         <v>15700000</v>
